--- a/media/file/order.xlsx
+++ b/media/file/order.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
   <si>
     <t>Store Order Id</t>
   </si>
@@ -63,19 +63,22 @@
     <t>Weight Class</t>
   </si>
   <si>
-    <t>BBB</t>
-  </si>
-  <si>
-    <t>Vanessa Hill</t>
-  </si>
-  <si>
-    <t>536 Goldensand Ln</t>
-  </si>
-  <si>
-    <t>Moncks Corner</t>
-  </si>
-  <si>
-    <t>South Carolina</t>
+    <t>TEST#1234</t>
+  </si>
+  <si>
+    <t>TEST111</t>
+  </si>
+  <si>
+    <t>410 e fulton st</t>
+  </si>
+  <si>
+    <t>Apt 9</t>
+  </si>
+  <si>
+    <t>Wauapca</t>
+  </si>
+  <si>
+    <t>Wisconsin</t>
   </si>
   <si>
     <t>US</t>
@@ -85,24 +88,6 @@
   </si>
   <si>
     <t>lb</t>
-  </si>
-  <si>
-    <t>TEST#1234</t>
-  </si>
-  <si>
-    <t>TEST111</t>
-  </si>
-  <si>
-    <t>410 e fulton st</t>
-  </si>
-  <si>
-    <t>Apt 9</t>
-  </si>
-  <si>
-    <t>Wauapca</t>
-  </si>
-  <si>
-    <t>Wisconsin</t>
   </si>
 </sst>
 </file>
@@ -453,7 +438,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,11 +449,11 @@
     <col min="1" max="1" width="2.285156" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="18.995361" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="20.280762" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="15.281982" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="21.137695" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="11.425781" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="18.709717" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="9.997559" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="16.424561" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="17.567139" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="9.283447" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="11.711426" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="9.997559" bestFit="true" customWidth="true" style="0"/>
     <col min="10" max="10" width="9.997559" bestFit="true" customWidth="true" style="0"/>
     <col min="11" max="11" width="8.712158" bestFit="true" customWidth="true" style="0"/>
@@ -531,7 +516,7 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -543,18 +528,20 @@
       <c r="E2" t="s">
         <v>17</v>
       </c>
-      <c r="F2"/>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2">
-        <v>29461</v>
+        <v>54981</v>
       </c>
       <c r="K2">
         <v>40</v>
@@ -566,61 +553,13 @@
         <v>20</v>
       </c>
       <c r="N2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
         <v>23</v>
-      </c>
-      <c r="C3"/>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3">
-        <v>54981</v>
-      </c>
-      <c r="K3">
-        <v>40</v>
-      </c>
-      <c r="L3">
-        <v>20</v>
-      </c>
-      <c r="M3">
-        <v>20</v>
-      </c>
-      <c r="N3">
-        <v>4</v>
-      </c>
-      <c r="O3" t="s">
-        <v>21</v>
-      </c>
-      <c r="P3" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
